--- a/оценка качества фазы.xlsx
+++ b/оценка качества фазы.xlsx
@@ -87,12 +87,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -105,6 +105,1130 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$306</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="304"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.0000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5000000000000204</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000201</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7000000000000197</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000203</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.0000000000000204</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000201</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2000000000000197</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000203</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5000000000000204</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000201</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7000000000000197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000203</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.0000000000000195</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1000000000000192</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000206</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000203</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4000000000000306</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5000000000000302</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000295</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000291</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9000000000000306</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.0000000000000302</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000295</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000291</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4000000000000306</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5000000000000302</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000295</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000291</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9000000000000306</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>23.600000000000101</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>23.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>24.100000000000101</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>24.200000000000099</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>24.3000000000001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>24.400000000000102</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>24.500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>24.600000000000101</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>24.700000000000099</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>24.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>24.900000000000102</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>25.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>25.100000000000101</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>25.200000000000099</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>25.3000000000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>25.400000000000102</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>25.500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>25.600000000000101</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>25.700000000000099</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>25.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>25.900000000000102</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>26.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>26.100000000000101</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>26.200000000000099</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26.3000000000001</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>26.400000000000102</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>26.500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>26.600000000000101</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>26.700000000000099</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>26.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>26.900000000000102</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>27.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>27.100000000000101</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>27.200000000000099</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>27.3000000000001</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>27.400000000000102</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>27.500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>27.600000000000101</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>27.700000000000099</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>27.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>27.900000000000102</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>28.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>28.100000000000101</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>28.200000000000099</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>28.3000000000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>28.400000000000102</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>28.500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>28.600000000000101</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>28.700000000000099</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>28.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>28.900000000000102</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>29.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>29.100000000000101</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>29.200000000000099</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>29.3000000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>29.400000000000102</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>29.500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>29.600000000000101</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>29.700000000000099</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>29.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>29.900000000000102</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>30.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>30.100000000000101</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>30.200000000000099</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>30.3000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$306</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="304"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1503</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1774</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2359</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3013</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3890</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4052</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4213</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4426</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>4513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="94507392"/>
+        <c:axId val="94508928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="94507392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94508928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94508928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94507392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>438149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,114 +1531,1613 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>0.1</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B4" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>0.2</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B5" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>0.3</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B6" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>0.4</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="B7" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>0.5</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="B8" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>0.6</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="B9" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>0.7</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="B10" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>0.8</v>
       </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="B11" s="2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>0.9</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="B12" s="2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="B13" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>1.2</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>1.3</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>1.4</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>1.5</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>1.6</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="B30">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>5.1000000000000103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>5.2000000000000099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>5.3000000000000096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>5.4000000000000101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>5.5000000000000098</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>5.6000000000000103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>5.7000000000000099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>5.8000000000000096</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>5.9000000000000101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>6.0000000000000098</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>6.1000000000000103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>6.2000000000000099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>6.3000000000000096</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>6.4000000000000101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>6.5000000000000204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>6.6000000000000201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>6.7000000000000197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>6.8000000000000203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>6.9000000000000199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>7.0000000000000204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>7.1000000000000201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>7.2000000000000197</v>
+      </c>
+      <c r="B75">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>7.3000000000000203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>7.4000000000000199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>7.5000000000000204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>7.6000000000000201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>7.7000000000000197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>7.8000000000000203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>7.9000000000000199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>8.0000000000000195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>8.1000000000000192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>8.2000000000000206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>8.3000000000000203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>8.4000000000000306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>8.5000000000000302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>8.6000000000000298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>8.7000000000000295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>8.8000000000000291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>8.9000000000000306</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>9.0000000000000302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>9.1000000000000298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>9.2000000000000295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>9.3000000000000291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>9.4000000000000306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>9.5000000000000302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>9.6000000000000298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>9.7000000000000295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>9.8000000000000291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>9.9000000000000306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>15</v>
+      </c>
+      <c r="B153">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>19</v>
+      </c>
+      <c r="B193">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>20</v>
+      </c>
+      <c r="B203">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>23.600000000000101</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>23.8000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>24.100000000000101</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>24.200000000000099</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>24.3000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>24.400000000000102</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>24.500000000000099</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>24.600000000000101</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>24.700000000000099</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>24.8000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>24.900000000000102</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>25.000000000000099</v>
+      </c>
+      <c r="B253">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>25.100000000000101</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>25.200000000000099</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>25.3000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>25.400000000000102</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>25.500000000000099</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>25.600000000000101</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>25.700000000000099</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>25.8000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>25.900000000000102</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>26.000000000000099</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>26.100000000000101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>26.200000000000099</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>26.3000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>26.400000000000102</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>26.500000000000099</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>26.600000000000101</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>26.700000000000099</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>26.8000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>26.900000000000102</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>27.000000000000099</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>27.100000000000101</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>27.200000000000099</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>27.3000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>27.400000000000102</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>27.500000000000099</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>27.600000000000101</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>27.700000000000099</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>27.8000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>27.900000000000102</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>28.000000000000099</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>28.100000000000101</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>28.200000000000099</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>28.3000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>28.400000000000102</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>28.500000000000099</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>28.600000000000101</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>28.700000000000099</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>28.8000000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>28.900000000000102</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>29.000000000000099</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>29.100000000000101</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>29.200000000000099</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>29.3000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>29.400000000000102</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>29.500000000000099</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>29.600000000000101</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>29.700000000000099</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>29.8000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>29.900000000000102</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>30.000000000000099</v>
+      </c>
+      <c r="B303">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>30.100000000000101</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>30.200000000000099</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <v>30.3000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -522,6 +3145,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/оценка качества фазы.xlsx
+++ b/оценка качества фазы.xlsx
@@ -132,10 +132,10 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$306</c:f>
+              <c:f>Лист1!$A$3:$A$503</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="501"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1047,16 +1047,607 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>30.3000000000001</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>30.400000000000102</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>30.500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>30.600000000000101</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>30.700000000000099</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>30.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>30.900000000000102</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>31.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>31.100000000000101</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>31.200000000000099</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>31.3000000000001</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>31.400000000000102</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>31.500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>31.600000000000101</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>31.700000000000099</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>31.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>31.900000000000102</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>32.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>32.100000000000101</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>32.200000000000102</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>32.300000000000097</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>32.400000000000098</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>32.500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>32.600000000000101</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>32.700000000000102</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>32.800000000000097</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>32.900000000000098</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>33.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>33.100000000000101</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>33.200000000000202</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>33.300000000000097</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>33.400000000000098</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>33.500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>33.6000000000002</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>33.700000000000202</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>33.800000000000097</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>33.900000000000198</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>34.000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>34.1000000000002</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>34.200000000000202</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>34.300000000000203</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>34.400000000000198</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>34.500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>34.6000000000002</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>34.700000000000202</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>34.800000000000203</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>34.900000000000198</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>35.000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>35.1000000000002</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>35.200000000000202</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>35.300000000000203</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>35.400000000000198</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>35.500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>35.6000000000002</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>35.700000000000202</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>35.800000000000203</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>35.900000000000198</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>36.000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>36.1000000000002</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>36.200000000000202</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>36.300000000000203</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>36.400000000000198</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>36.500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>36.6000000000002</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>36.700000000000202</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>36.800000000000203</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>36.900000000000198</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>37.000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>37.1000000000002</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>37.200000000000202</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>37.300000000000203</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>37.400000000000198</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>37.500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>37.6000000000002</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>37.700000000000202</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>37.800000000000203</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>37.900000000000198</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>38.000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>38.1000000000002</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>38.200000000000202</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>38.300000000000203</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>38.400000000000198</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>38.500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>38.6000000000002</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>38.700000000000202</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>38.800000000000203</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>38.900000000000198</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>39.000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>39.1000000000002</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>39.200000000000202</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>39.300000000000203</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>39.400000000000198</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>39.500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>39.6000000000002</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>39.700000000000202</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>39.800000000000203</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>39.900000000000198</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>40.000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>40.1000000000002</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>40.200000000000202</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>40.300000000000203</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>40.400000000000198</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>40.500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>40.6000000000003</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>40.700000000000301</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>40.800000000000303</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>40.900000000000297</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>41.000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>41.1000000000003</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>41.200000000000301</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>41.300000000000303</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>41.400000000000297</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>41.500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>41.6000000000003</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>41.700000000000301</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>41.800000000000303</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>41.900000000000297</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>42.000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>42.1000000000003</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>42.200000000000301</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>42.300000000000303</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>42.400000000000297</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>42.500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>42.6000000000003</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>42.700000000000301</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>42.800000000000303</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>42.900000000000297</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>43.000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>43.1000000000003</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>43.200000000000301</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>43.300000000000303</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>43.400000000000297</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>43.500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>43.6000000000003</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>43.700000000000301</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>43.800000000000303</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>43.900000000000297</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44.000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44.1000000000003</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44.200000000000301</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>44.300000000000303</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44.400000000000297</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44.500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44.6000000000003</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44.700000000000301</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44.800000000000303</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44.900000000000297</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>45.000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>45.1000000000003</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>45.200000000000301</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>45.300000000000303</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>45.400000000000297</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>45.500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>45.6000000000003</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>45.700000000000301</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>45.800000000000303</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>45.900000000000297</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>46.000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>46.1000000000003</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>46.200000000000301</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>46.300000000000303</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>46.400000000000297</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>46.500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>46.6000000000003</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>46.700000000000301</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>46.800000000000303</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>46.900000000000297</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>47.000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>47.1000000000003</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>47.200000000000301</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>47.300000000000303</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>47.400000000000297</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>47.500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>47.600000000000399</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>47.700000000000401</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>47.800000000000402</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>47.900000000000396</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>48.000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>48.100000000000399</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>48.200000000000401</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>48.300000000000402</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>48.400000000000396</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>48.500000000000398</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>48.600000000000399</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>48.700000000000401</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>48.800000000000402</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>48.900000000000396</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>49.000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>49.100000000000399</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>49.200000000000401</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>49.300000000000402</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>49.400000000000396</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>49.500000000000398</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>49.600000000000399</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>49.700000000000401</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>49.800000000000402</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>49.900000000000396</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>50.000000000000398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$3:$B$306</c:f>
+              <c:f>Лист1!$B$3:$B$503</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="501"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1105,12 +1696,33 @@
                 <c:pt idx="50">
                   <c:v>1774</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2333</c:v>
+                </c:pt>
                 <c:pt idx="72">
                   <c:v>2359</c:v>
                 </c:pt>
+                <c:pt idx="80">
+                  <c:v>2575</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2826</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>3013</c:v>
                 </c:pt>
+                <c:pt idx="110">
+                  <c:v>3255</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3549</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3609</c:v>
+                </c:pt>
                 <c:pt idx="150">
                   <c:v>3890</c:v>
                 </c:pt>
@@ -1125,6 +1737,21 @@
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>4513</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>4854</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>4987</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>5140</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>5171</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>5052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,11 +1768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94507392"/>
-        <c:axId val="94508928"/>
+        <c:axId val="38675584"/>
+        <c:axId val="38677120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94507392"/>
+        <c:axId val="38675584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94508928"/>
+        <c:crossAx val="38677120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,7 +1790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94508928"/>
+        <c:axId val="38677120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94507392"/>
+        <c:crossAx val="38675584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,16 +1827,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>438149</xdr:rowOff>
+      <xdr:rowOff>476249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1518,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,6 +2529,9 @@
       <c r="A63" s="2">
         <v>6.0000000000000098</v>
       </c>
+      <c r="B63">
+        <v>2041</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -1952,6 +2582,9 @@
       <c r="A73" s="2">
         <v>7.0000000000000204</v>
       </c>
+      <c r="B73">
+        <v>2333</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -1991,82 +2624,88 @@
         <v>7.7000000000000197</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>7.8000000000000203</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>7.9000000000000199</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>8.0000000000000195</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>8.1000000000000192</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>8.2000000000000206</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>8.3000000000000203</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>8.4000000000000306</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>8.5000000000000302</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>8.6000000000000298</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>8.7000000000000295</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>8.8000000000000291</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>8.9000000000000306</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>9.0000000000000302</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>9.1000000000000298</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>9.2000000000000295</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>9.3000000000000291</v>
       </c>
@@ -2154,162 +2793,171 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>11.1</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>11.2</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>11.3</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>11.4</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>11.5</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>11.6</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>11.7</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>11.8</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>11.9</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>12.1</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>12.2</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>12.3</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>12.4</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>12.5</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>12.6</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>12.7</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>12.8</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>12.9</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>13.1</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>13.2</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>13.3</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>13.4</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>13.5</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>13.6</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>13.7</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>13.8</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>13.9</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>14.1</v>
       </c>
@@ -3137,6 +3785,1006 @@
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>30.3000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>30.400000000000102</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>30.500000000000099</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>30.600000000000101</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <v>30.700000000000099</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>30.8000000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>30.900000000000102</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>31.000000000000099</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>31.100000000000101</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>31.200000000000099</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>31.3000000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>31.400000000000102</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>31.500000000000099</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>31.600000000000101</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>31.700000000000099</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>31.8000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>31.900000000000102</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>32.000000000000099</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>32.100000000000101</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>32.200000000000102</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>32.300000000000097</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>32.400000000000098</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>32.500000000000099</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>32.600000000000101</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>32.700000000000102</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>32.800000000000097</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>32.900000000000098</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>33.000000000000099</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>33.100000000000101</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>33.200000000000202</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>33.300000000000097</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>33.400000000000098</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>33.500000000000099</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>33.6000000000002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>33.700000000000202</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>33.800000000000097</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>33.900000000000198</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>34.000000000000199</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>34.1000000000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>34.200000000000202</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>34.300000000000203</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>34.400000000000198</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>34.500000000000199</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>34.6000000000002</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>34.700000000000202</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>34.800000000000203</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>34.900000000000198</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>35.000000000000199</v>
+      </c>
+      <c r="B353">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>35.1000000000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>35.200000000000202</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>35.300000000000203</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>35.400000000000198</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>35.500000000000199</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>35.6000000000002</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>35.700000000000202</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>35.800000000000203</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>35.900000000000198</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>36.000000000000199</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>36.1000000000002</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>36.200000000000202</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>36.300000000000203</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>36.400000000000198</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>36.500000000000199</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>36.6000000000002</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>36.700000000000202</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>36.800000000000203</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>36.900000000000198</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>37.000000000000199</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>37.1000000000002</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <v>37.200000000000202</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <v>37.300000000000203</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <v>37.400000000000198</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>37.500000000000199</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>37.6000000000002</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>37.700000000000202</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>37.800000000000203</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>37.900000000000198</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <v>38.000000000000199</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>38.1000000000002</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>38.200000000000202</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <v>38.300000000000203</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <v>38.400000000000198</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>38.500000000000199</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <v>38.6000000000002</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <v>38.700000000000202</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
+        <v>38.800000000000203</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
+        <v>38.900000000000198</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <v>39.000000000000199</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="2">
+        <v>39.1000000000002</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="2">
+        <v>39.200000000000202</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
+        <v>39.300000000000203</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
+        <v>39.400000000000198</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
+        <v>39.500000000000199</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="2">
+        <v>39.6000000000002</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="2">
+        <v>39.700000000000202</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="2">
+        <v>39.800000000000203</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="2">
+        <v>39.900000000000198</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="2">
+        <v>40.000000000000199</v>
+      </c>
+      <c r="B403">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="2">
+        <v>40.1000000000002</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="2">
+        <v>40.200000000000202</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="2">
+        <v>40.300000000000203</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="2">
+        <v>40.400000000000198</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="2">
+        <v>40.500000000000199</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="2">
+        <v>40.6000000000003</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="2">
+        <v>40.700000000000301</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="2">
+        <v>40.800000000000303</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="2">
+        <v>40.900000000000297</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="2">
+        <v>41.000000000000298</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="2">
+        <v>41.1000000000003</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="2">
+        <v>41.200000000000301</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="2">
+        <v>41.300000000000303</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="2">
+        <v>41.400000000000297</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="2">
+        <v>41.500000000000298</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>41.6000000000003</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>41.700000000000301</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>41.800000000000303</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <v>41.900000000000297</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <v>42.000000000000298</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <v>42.1000000000003</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>42.200000000000301</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>42.300000000000303</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
+        <v>42.400000000000297</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
+        <v>42.500000000000298</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
+        <v>42.6000000000003</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
+        <v>42.700000000000301</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
+        <v>42.800000000000303</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
+        <v>42.900000000000297</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>43.000000000000298</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>43.1000000000003</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>43.200000000000301</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>43.300000000000303</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>43.400000000000297</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>43.500000000000298</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <v>43.6000000000003</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>43.700000000000301</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>43.800000000000303</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>43.900000000000297</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <v>44.000000000000298</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>44.1000000000003</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>44.200000000000301</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>44.300000000000303</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>44.400000000000297</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>44.500000000000298</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>44.6000000000003</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>44.700000000000301</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>44.800000000000303</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <v>44.900000000000297</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <v>45.000000000000298</v>
+      </c>
+      <c r="B453">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>45.1000000000003</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>45.200000000000301</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="2">
+        <v>45.300000000000303</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
+        <v>45.400000000000297</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="2">
+        <v>45.500000000000298</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="2">
+        <v>45.6000000000003</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="2">
+        <v>45.700000000000301</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="2">
+        <v>45.800000000000303</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="2">
+        <v>45.900000000000297</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="2">
+        <v>46.000000000000298</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="2">
+        <v>46.1000000000003</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="2">
+        <v>46.200000000000301</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="2">
+        <v>46.300000000000303</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="2">
+        <v>46.400000000000297</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="2">
+        <v>46.500000000000298</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="2">
+        <v>46.6000000000003</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="2">
+        <v>46.700000000000301</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="2">
+        <v>46.800000000000303</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="2">
+        <v>46.900000000000297</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="2">
+        <v>47.000000000000298</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="2">
+        <v>47.1000000000003</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="2">
+        <v>47.200000000000301</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="2">
+        <v>47.300000000000303</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="2">
+        <v>47.400000000000297</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="2">
+        <v>47.500000000000298</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="2">
+        <v>47.600000000000399</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="2">
+        <v>47.700000000000401</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="2">
+        <v>47.800000000000402</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="2">
+        <v>47.900000000000396</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="2">
+        <v>48.000000000000398</v>
+      </c>
+      <c r="B483">
+        <v>5171</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="2">
+        <v>48.100000000000399</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="2">
+        <v>48.200000000000401</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="2">
+        <v>48.300000000000402</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="2">
+        <v>48.400000000000396</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="2">
+        <v>48.500000000000398</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="2">
+        <v>48.600000000000399</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="2">
+        <v>48.700000000000401</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="2">
+        <v>48.800000000000402</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="2">
+        <v>48.900000000000396</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="2">
+        <v>49.000000000000398</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="2">
+        <v>49.100000000000399</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="2">
+        <v>49.200000000000401</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="2">
+        <v>49.300000000000402</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="2">
+        <v>49.400000000000396</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="2">
+        <v>49.500000000000398</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="2">
+        <v>49.600000000000399</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="2">
+        <v>49.700000000000401</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="2">
+        <v>49.800000000000402</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="2">
+        <v>49.900000000000396</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="2">
+        <v>50.000000000000398</v>
+      </c>
+      <c r="B503">
+        <v>5052</v>
       </c>
     </row>
   </sheetData>

--- a/оценка качества фазы.xlsx
+++ b/оценка качества фазы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Фазовый шум</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>Среднеквадратичное отклонение от идеальной фазы</t>
+  </si>
+  <si>
+    <t>Гамма коррекция</t>
+  </si>
+  <si>
+    <t>Гамма</t>
   </si>
 </sst>
 </file>
@@ -1768,11 +1774,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38675584"/>
-        <c:axId val="38677120"/>
+        <c:axId val="173421696"/>
+        <c:axId val="173423232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38675584"/>
+        <c:axId val="173421696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38677120"/>
+        <c:crossAx val="173423232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1790,7 +1796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38677120"/>
+        <c:axId val="173423232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1807,604 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38675584"/>
+        <c:crossAx val="173421696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$V$3:$V$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,1 0,2 0,3 0,4 0,5 0,6 0,7 0,8 0,9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$U$3:$U$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$V$12:$V$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="141"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3017</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3857</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4107</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4022</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="130214912"/>
+        <c:axId val="130275200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="130214912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130275200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="130275200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130214912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1827,16 +2430,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>476249</xdr:rowOff>
+      <xdr:rowOff>571499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1850,6 +2453,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>490536</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>566737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2145,864 +2778,1395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B503"/>
+  <dimension ref="A1:V503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="21" max="21" width="27.7109375" customWidth="1"/>
+    <col min="22" max="22" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="U1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.1</v>
       </c>
       <c r="B4" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.2</v>
       </c>
       <c r="B5" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.3</v>
       </c>
       <c r="B6" s="2">
         <v>225</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.4</v>
       </c>
       <c r="B7" s="2">
         <v>274</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.5</v>
       </c>
       <c r="B8" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.6</v>
       </c>
       <c r="B9" s="2">
         <v>386</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.7</v>
       </c>
       <c r="B10" s="2">
         <v>419</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.8</v>
       </c>
       <c r="B11" s="2">
         <v>503</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0.9</v>
       </c>
       <c r="B12" s="2">
         <v>540</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
       <c r="B13" s="2">
         <v>579</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U13" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1.2</v>
       </c>
       <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U15" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
       <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U16" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1.4</v>
       </c>
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1.5</v>
       </c>
       <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U18" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1.6</v>
       </c>
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U19" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U20" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U21" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U22" s="1">
+        <v>2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2</v>
       </c>
       <c r="B23">
         <v>929</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U23" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U24" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U25" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U26" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U28" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U29" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2.7</v>
       </c>
       <c r="B30">
         <v>1161</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U30" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U31" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U32" s="1">
+        <v>3</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>3</v>
       </c>
       <c r="B33">
         <v>1204</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U33" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U34" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U35" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U36" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U37" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U38" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U39" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="V39" s="2"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U40" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U41" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U42" s="1">
+        <v>4</v>
+      </c>
+      <c r="V42" s="2">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>4</v>
       </c>
       <c r="B43">
         <v>1503</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U43" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U44" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="V44" s="2"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U45" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="V45" s="2"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U46" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U47" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U48" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U49" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="V49" s="2"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U50" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="V50" s="2"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U51" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V51" s="2"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U52" s="1">
+        <v>5</v>
+      </c>
+      <c r="V52" s="2">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>5</v>
       </c>
       <c r="B53">
         <v>1774</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U53" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>5.1000000000000103</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U54" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>5.2000000000000099</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U55" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>5.3000000000000096</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U56" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>5.4000000000000101</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U57" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>5.5000000000000098</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U58" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>5.6000000000000103</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U59" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>5.7000000000000099</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U60" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>5.8000000000000096</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U61" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>5.9000000000000101</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U62" s="1">
+        <v>6</v>
+      </c>
+      <c r="V62">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>6.0000000000000098</v>
       </c>
       <c r="B63">
         <v>2041</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U63" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>6.1000000000000103</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U64" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>6.2000000000000099</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U65" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>6.3000000000000096</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U66" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>6.4000000000000101</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U67" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>6.5000000000000204</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U68" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>6.6000000000000201</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U69" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>6.7000000000000197</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U70" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>6.8000000000000203</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U71" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>6.9000000000000199</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U72" s="1">
+        <v>7</v>
+      </c>
+      <c r="V72">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>7.0000000000000204</v>
       </c>
       <c r="B73">
         <v>2333</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U73" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>7.1000000000000201</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U74" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>7.2000000000000197</v>
       </c>
       <c r="B75">
         <v>2359</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U75" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>7.3000000000000203</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U76" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>7.4000000000000199</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U77" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>7.5000000000000204</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U78" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>7.6000000000000201</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U79" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>7.7000000000000197</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U80" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>7.8000000000000203</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U81" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>7.9000000000000199</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U82" s="1">
+        <v>8</v>
+      </c>
+      <c r="V82">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>8.0000000000000195</v>
       </c>
       <c r="B83">
         <v>2575</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U83" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>8.1000000000000192</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U84" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>8.2000000000000206</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U85" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>8.3000000000000203</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U86" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>8.4000000000000306</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U87" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>8.5000000000000302</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U88" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>8.6000000000000298</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U89" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>8.7000000000000295</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U90" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>8.8000000000000291</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U91" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>8.9000000000000306</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U92" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>9.0000000000000302</v>
       </c>
       <c r="B93">
         <v>2826</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U93" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>9.1000000000000298</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U94" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>9.2000000000000295</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U95" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>9.3000000000000291</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U96" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>9.4000000000000306</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U97" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>9.5000000000000302</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U98" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>9.6000000000000298</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U99" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>9.7000000000000295</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U100" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>9.8000000000000291</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U101" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>9.9000000000000306</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U102" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>10</v>
       </c>
       <c r="B103">
         <v>3013</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U103" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U104" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U105" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U106" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U107" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U108" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U109" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U110" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U111" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U112" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>11</v>
       </c>
       <c r="B113">
         <v>3255</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U113" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U114" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U115" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U116" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U117" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U118" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U119" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U120" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U121" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U122" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>12</v>
       </c>
       <c r="B123">
         <v>3549</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U123" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U124" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U125" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U126" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U127" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U128" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U129" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U130" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U131" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U132" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>13</v>
       </c>
       <c r="B133">
         <v>3609</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U133" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U134" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U135" s="1">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U136" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U137" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U138" s="1">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U139" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U140" s="1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U141" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U142" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U143" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U144" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U145" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U146" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U147" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U148" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U149" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U150" s="1">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U151" s="1">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="U152" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>15</v>
       </c>
@@ -3010,37 +4174,37 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>15.1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>15.2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>15.3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>15.4</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>15.5</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>15.6</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>15.7</v>
       </c>
@@ -4788,8 +5952,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
